--- a/bookkeeper-testing1.xlsx
+++ b/bookkeeper-testing1.xlsx
@@ -1139,7 +1139,7 @@
         <v>10.0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G3" t="n">
         <v>100.0</v>
@@ -1221,7 +1221,7 @@
         <v>10.0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G5" t="n">
         <v>150.0</v>
@@ -1262,7 +1262,7 @@
         <v>95.0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G6" t="n">
         <v>3480.0</v>
@@ -1344,7 +1344,7 @@
         <v>5.0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G8" t="n">
         <v>25.0</v>
@@ -1426,7 +1426,7 @@
         <v>25.0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G10" t="n">
         <v>4725.0</v>
@@ -1508,7 +1508,7 @@
         <v>15.0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G12" t="n">
         <v>505.0</v>
@@ -1549,7 +1549,7 @@
         <v>30.0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G13" t="n">
         <v>615.0</v>
@@ -1631,7 +1631,7 @@
         <v>15.0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G15" t="n">
         <v>545.0</v>
@@ -1672,7 +1672,7 @@
         <v>15.0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G16" t="n">
         <v>125.0</v>
@@ -1713,7 +1713,7 @@
         <v>5.0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G17" t="n">
         <v>255.0</v>
@@ -1754,7 +1754,7 @@
         <v>45.0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G18" t="n">
         <v>670.0</v>
@@ -1877,7 +1877,7 @@
         <v>40.0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G21" t="n">
         <v>205.0</v>
@@ -1918,7 +1918,7 @@
         <v>35.0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G22" t="n">
         <v>165.0</v>
@@ -1959,7 +1959,7 @@
         <v>5.0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G23" t="n">
         <v>10.0</v>
@@ -2000,7 +2000,7 @@
         <v>5.0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G24" t="n">
         <v>20.0</v>
@@ -2082,7 +2082,7 @@
         <v>45.0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G26" t="n">
         <v>1035.0</v>
@@ -2164,7 +2164,7 @@
         <v>5.0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G28" t="n">
         <v>10.0</v>
@@ -2205,7 +2205,7 @@
         <v>5.0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G29" t="n">
         <v>20.0</v>
@@ -2246,7 +2246,7 @@
         <v>5.0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G30" t="n">
         <v>5.0</v>
@@ -2287,7 +2287,7 @@
         <v>15.0</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G31" t="n">
         <v>1350.0</v>
@@ -2369,7 +2369,7 @@
         <v>5.0</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G33" t="n">
         <v>95.0</v>
@@ -2451,7 +2451,7 @@
         <v>10.0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G35" t="n">
         <v>295.0</v>
@@ -2492,7 +2492,7 @@
         <v>5.0</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G36" t="n">
         <v>220.0</v>
@@ -2533,7 +2533,7 @@
         <v>5.0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G37" t="n">
         <v>540.0</v>
@@ -2615,7 +2615,7 @@
         <v>20.0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G39" t="n">
         <v>220.0</v>
@@ -2656,7 +2656,7 @@
         <v>15.0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G40" t="n">
         <v>610.0</v>
@@ -2697,7 +2697,7 @@
         <v>55.0</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G41" t="n">
         <v>645.0</v>
@@ -2738,7 +2738,7 @@
         <v>65.0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G42" t="n">
         <v>1595.0</v>
@@ -2820,7 +2820,7 @@
         <v>5.0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G44" t="n">
         <v>35.0</v>
@@ -2861,7 +2861,7 @@
         <v>10.0</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G45" t="n">
         <v>190.0</v>
@@ -2902,7 +2902,7 @@
         <v>20.0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G46" t="n">
         <v>1425.0</v>
@@ -2943,7 +2943,7 @@
         <v>20.0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G47" t="n">
         <v>80.0</v>
@@ -2984,7 +2984,7 @@
         <v>15.0</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G48" t="n">
         <v>65.0</v>
@@ -3025,7 +3025,7 @@
         <v>5.0</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G49" t="n">
         <v>0.0</v>
@@ -3066,7 +3066,7 @@
         <v>25.0</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G50" t="n">
         <v>840.0</v>
@@ -3107,7 +3107,7 @@
         <v>20.0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G51" t="n">
         <v>2585.0</v>
@@ -3148,7 +3148,7 @@
         <v>60.0</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G52" t="n">
         <v>1690.0</v>
@@ -3189,7 +3189,7 @@
         <v>45.0</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G53" t="n">
         <v>1365.0</v>
@@ -3230,7 +3230,7 @@
         <v>15.0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G54" t="n">
         <v>280.0</v>
@@ -3271,7 +3271,7 @@
         <v>10.0</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G55" t="n">
         <v>10.0</v>
@@ -3353,7 +3353,7 @@
         <v>25.0</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G57" t="n">
         <v>300.0</v>
@@ -3394,7 +3394,7 @@
         <v>60.0</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G58" t="n">
         <v>2190.0</v>
@@ -3435,7 +3435,7 @@
         <v>20.0</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G59" t="n">
         <v>65.0</v>
@@ -3476,7 +3476,7 @@
         <v>10.0</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G60" t="n">
         <v>155.0</v>
@@ -3517,7 +3517,7 @@
         <v>10.0</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G61" t="n">
         <v>180.0</v>
@@ -3599,7 +3599,7 @@
         <v>25.0</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G63" t="n">
         <v>635.0</v>
@@ -3640,7 +3640,7 @@
         <v>20.0</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G64" t="n">
         <v>370.0</v>
@@ -3681,7 +3681,7 @@
         <v>35.0</v>
       </c>
       <c r="F65" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G65" t="n">
         <v>890.0</v>
@@ -3763,7 +3763,7 @@
         <v>5.0</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G67" t="n">
         <v>15.0</v>
@@ -3804,7 +3804,7 @@
         <v>35.0</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G68" t="n">
         <v>1015.0</v>
@@ -3845,7 +3845,7 @@
         <v>25.0</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G69" t="n">
         <v>245.0</v>
@@ -3886,7 +3886,7 @@
         <v>20.0</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G70" t="n">
         <v>485.0</v>
@@ -3927,7 +3927,7 @@
         <v>25.0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G71" t="n">
         <v>640.0</v>
@@ -3968,7 +3968,7 @@
         <v>20.0</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G72" t="n">
         <v>490.0</v>
@@ -4009,7 +4009,7 @@
         <v>25.0</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G73" t="n">
         <v>390.0</v>
@@ -4050,7 +4050,7 @@
         <v>10.0</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G74" t="n">
         <v>675.0</v>
@@ -4091,7 +4091,7 @@
         <v>20.0</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G75" t="n">
         <v>1180.0</v>
@@ -4132,7 +4132,7 @@
         <v>15.0</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G76" t="n">
         <v>545.0</v>
@@ -4173,7 +4173,7 @@
         <v>10.0</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G77" t="n">
         <v>3760.0</v>
@@ -4214,7 +4214,7 @@
         <v>65.0</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G78" t="n">
         <v>3135.0</v>
@@ -4255,7 +4255,7 @@
         <v>10.0</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G79" t="n">
         <v>360.0</v>
@@ -4296,7 +4296,7 @@
         <v>5.0</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G80" t="n">
         <v>45.0</v>
@@ -4337,7 +4337,7 @@
         <v>5.0</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G81" t="n">
         <v>20.0</v>
@@ -4378,7 +4378,7 @@
         <v>5.0</v>
       </c>
       <c r="F82" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G82" t="n">
         <v>130.0</v>
@@ -4419,7 +4419,7 @@
         <v>5.0</v>
       </c>
       <c r="F83" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G83" t="n">
         <v>395.0</v>
@@ -4460,7 +4460,7 @@
         <v>5.0</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G84" t="n">
         <v>125.0</v>
@@ -4501,7 +4501,7 @@
         <v>5.0</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G85" t="n">
         <v>420.0</v>
@@ -4542,7 +4542,7 @@
         <v>5.0</v>
       </c>
       <c r="F86" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G86" t="n">
         <v>170.0</v>
@@ -4583,7 +4583,7 @@
         <v>5.0</v>
       </c>
       <c r="F87" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G87" t="n">
         <v>165.0</v>
@@ -4624,7 +4624,7 @@
         <v>5.0</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G88" t="n">
         <v>520.0</v>
@@ -4665,7 +4665,7 @@
         <v>5.0</v>
       </c>
       <c r="F89" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G89" t="n">
         <v>860.0</v>
@@ -4706,7 +4706,7 @@
         <v>5.0</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G90" t="n">
         <v>350.0</v>
@@ -4747,7 +4747,7 @@
         <v>5.0</v>
       </c>
       <c r="F91" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G91" t="n">
         <v>700.0</v>
@@ -4788,7 +4788,7 @@
         <v>5.0</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G92" t="n">
         <v>1070.0</v>
@@ -4829,7 +4829,7 @@
         <v>5.0</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G93" t="n">
         <v>770.0</v>
@@ -4870,7 +4870,7 @@
         <v>10.0</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G94" t="n">
         <v>130.0</v>
@@ -4911,7 +4911,7 @@
         <v>10.0</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G95" t="n">
         <v>310.0</v>
@@ -4952,7 +4952,7 @@
         <v>5.0</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G96" t="n">
         <v>20.0</v>
@@ -4993,7 +4993,7 @@
         <v>65.0</v>
       </c>
       <c r="F97" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G97" t="n">
         <v>940.0</v>
@@ -5034,7 +5034,7 @@
         <v>5.0</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G98" t="n">
         <v>15.0</v>
@@ -5116,7 +5116,7 @@
         <v>5.0</v>
       </c>
       <c r="F100" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G100" t="n">
         <v>5.0</v>
@@ -5157,7 +5157,7 @@
         <v>35.0</v>
       </c>
       <c r="F101" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G101" t="n">
         <v>20570.0</v>
@@ -5198,7 +5198,7 @@
         <v>10.0</v>
       </c>
       <c r="F102" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G102" t="n">
         <v>165.0</v>
@@ -5239,7 +5239,7 @@
         <v>45.0</v>
       </c>
       <c r="F103" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G103" t="n">
         <v>600.0</v>
@@ -5280,7 +5280,7 @@
         <v>10.0</v>
       </c>
       <c r="F104" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G104" t="n">
         <v>40.0</v>
@@ -5321,7 +5321,7 @@
         <v>20.0</v>
       </c>
       <c r="F105" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G105" t="n">
         <v>2885.0</v>
@@ -5362,7 +5362,7 @@
         <v>30.0</v>
       </c>
       <c r="F106" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G106" t="n">
         <v>2075.0</v>
@@ -5403,7 +5403,7 @@
         <v>35.0</v>
       </c>
       <c r="F107" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G107" t="n">
         <v>1505.0</v>
@@ -5444,7 +5444,7 @@
         <v>15.0</v>
       </c>
       <c r="F108" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G108" t="n">
         <v>710.0</v>
@@ -5485,7 +5485,7 @@
         <v>5.0</v>
       </c>
       <c r="F109" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G109" t="n">
         <v>280.0</v>
@@ -5526,7 +5526,7 @@
         <v>15.0</v>
       </c>
       <c r="F110" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G110" t="n">
         <v>405.0</v>
@@ -5567,7 +5567,7 @@
         <v>40.0</v>
       </c>
       <c r="F111" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G111" t="n">
         <v>2330.0</v>
@@ -5731,7 +5731,7 @@
         <v>10.0</v>
       </c>
       <c r="F115" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G115" t="n">
         <v>230.0</v>
@@ -5772,7 +5772,7 @@
         <v>10.0</v>
       </c>
       <c r="F116" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G116" t="n">
         <v>855.0</v>
@@ -5813,7 +5813,7 @@
         <v>5.0</v>
       </c>
       <c r="F117" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G117" t="n">
         <v>385.0</v>
@@ -5895,7 +5895,7 @@
         <v>5.0</v>
       </c>
       <c r="F119" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G119" t="n">
         <v>165.0</v>
@@ -5936,7 +5936,7 @@
         <v>25.0</v>
       </c>
       <c r="F120" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G120" t="n">
         <v>125.0</v>
@@ -6018,7 +6018,7 @@
         <v>10.0</v>
       </c>
       <c r="F122" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G122" t="n">
         <v>150.0</v>
@@ -6059,7 +6059,7 @@
         <v>10.0</v>
       </c>
       <c r="F123" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G123" t="n">
         <v>210.0</v>
@@ -6100,7 +6100,7 @@
         <v>10.0</v>
       </c>
       <c r="F124" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G124" t="n">
         <v>760.0</v>
@@ -6182,7 +6182,7 @@
         <v>5.0</v>
       </c>
       <c r="F126" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G126" t="n">
         <v>10.0</v>
@@ -6223,7 +6223,7 @@
         <v>5.0</v>
       </c>
       <c r="F127" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G127" t="n">
         <v>235.0</v>
@@ -6264,7 +6264,7 @@
         <v>10.0</v>
       </c>
       <c r="F128" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G128" t="n">
         <v>320.0</v>
@@ -6305,7 +6305,7 @@
         <v>5.0</v>
       </c>
       <c r="F129" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G129" t="n">
         <v>215.0</v>
@@ -6346,7 +6346,7 @@
         <v>20.0</v>
       </c>
       <c r="F130" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G130" t="n">
         <v>910.0</v>
@@ -6387,7 +6387,7 @@
         <v>10.0</v>
       </c>
       <c r="F131" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G131" t="n">
         <v>315.0</v>
@@ -6428,7 +6428,7 @@
         <v>5.0</v>
       </c>
       <c r="F132" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G132" t="n">
         <v>225.0</v>
@@ -6469,7 +6469,7 @@
         <v>5.0</v>
       </c>
       <c r="F133" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G133" t="n">
         <v>470.0</v>
@@ -6592,7 +6592,7 @@
         <v>10.0</v>
       </c>
       <c r="F136" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G136" t="n">
         <v>140.0</v>
@@ -6633,7 +6633,7 @@
         <v>15.0</v>
       </c>
       <c r="F137" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G137" t="n">
         <v>315.0</v>
@@ -6674,7 +6674,7 @@
         <v>10.0</v>
       </c>
       <c r="F138" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G138" t="n">
         <v>40.0</v>
@@ -6715,7 +6715,7 @@
         <v>15.0</v>
       </c>
       <c r="F139" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G139" t="n">
         <v>40.0</v>
@@ -6756,7 +6756,7 @@
         <v>10.0</v>
       </c>
       <c r="F140" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G140" t="n">
         <v>50.0</v>
@@ -6879,7 +6879,7 @@
         <v>10.0</v>
       </c>
       <c r="F143" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G143" t="n">
         <v>60.0</v>
@@ -6920,7 +6920,7 @@
         <v>5.0</v>
       </c>
       <c r="F144" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G144" t="n">
         <v>50.0</v>
@@ -6961,7 +6961,7 @@
         <v>15.0</v>
       </c>
       <c r="F145" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G145" t="n">
         <v>175.0</v>
@@ -7125,7 +7125,7 @@
         <v>5.0</v>
       </c>
       <c r="F149" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G149" t="n">
         <v>170.0</v>
@@ -7166,7 +7166,7 @@
         <v>5.0</v>
       </c>
       <c r="F150" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G150" t="n">
         <v>170.0</v>
@@ -7289,7 +7289,7 @@
         <v>5.0</v>
       </c>
       <c r="F153" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G153" t="n">
         <v>780.0</v>
@@ -7330,7 +7330,7 @@
         <v>5.0</v>
       </c>
       <c r="F154" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G154" t="n">
         <v>420.0</v>
@@ -7371,7 +7371,7 @@
         <v>15.0</v>
       </c>
       <c r="F155" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G155" t="n">
         <v>375.0</v>
@@ -7412,7 +7412,7 @@
         <v>10.0</v>
       </c>
       <c r="F156" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G156" t="n">
         <v>90.0</v>
@@ -7453,7 +7453,7 @@
         <v>10.0</v>
       </c>
       <c r="F157" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G157" t="n">
         <v>65.0</v>
@@ -7494,7 +7494,7 @@
         <v>35.0</v>
       </c>
       <c r="F158" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G158" t="n">
         <v>815.0</v>
@@ -7535,7 +7535,7 @@
         <v>10.0</v>
       </c>
       <c r="F159" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G159" t="n">
         <v>130.0</v>
@@ -7617,7 +7617,7 @@
         <v>10.0</v>
       </c>
       <c r="F161" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G161" t="n">
         <v>915.0</v>
@@ -7658,7 +7658,7 @@
         <v>10.0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G162" t="n">
         <v>355.0</v>
@@ -7699,7 +7699,7 @@
         <v>5.0</v>
       </c>
       <c r="F163" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G163" t="n">
         <v>270.0</v>
@@ -7740,7 +7740,7 @@
         <v>5.0</v>
       </c>
       <c r="F164" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G164" t="n">
         <v>800.0</v>
@@ -7781,7 +7781,7 @@
         <v>50.0</v>
       </c>
       <c r="F165" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G165" t="n">
         <v>540.0</v>
@@ -7822,7 +7822,7 @@
         <v>35.0</v>
       </c>
       <c r="F166" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G166" t="n">
         <v>610.0</v>
@@ -7863,7 +7863,7 @@
         <v>50.0</v>
       </c>
       <c r="F167" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G167" t="n">
         <v>1380.0</v>
@@ -7904,7 +7904,7 @@
         <v>10.0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G168" t="n">
         <v>3120.0</v>
@@ -7945,7 +7945,7 @@
         <v>15.0</v>
       </c>
       <c r="F169" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G169" t="n">
         <v>2010.0</v>
@@ -7986,7 +7986,7 @@
         <v>10.0</v>
       </c>
       <c r="F170" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G170" t="n">
         <v>1920.0</v>
@@ -8027,7 +8027,7 @@
         <v>5.0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G171" t="n">
         <v>120.0</v>
@@ -8068,7 +8068,7 @@
         <v>5.0</v>
       </c>
       <c r="F172" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G172" t="n">
         <v>460.0</v>
@@ -8109,7 +8109,7 @@
         <v>10.0</v>
       </c>
       <c r="F173" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G173" t="n">
         <v>1420.0</v>
@@ -8150,7 +8150,7 @@
         <v>5.0</v>
       </c>
       <c r="F174" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G174" t="n">
         <v>1855.0</v>
@@ -8191,7 +8191,7 @@
         <v>15.0</v>
       </c>
       <c r="F175" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G175" t="n">
         <v>1595.0</v>
@@ -8232,7 +8232,7 @@
         <v>15.0</v>
       </c>
       <c r="F176" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G176" t="n">
         <v>3265.0</v>
@@ -8273,7 +8273,7 @@
         <v>5.0</v>
       </c>
       <c r="F177" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G177" t="n">
         <v>245.0</v>
@@ -8314,7 +8314,7 @@
         <v>5.0</v>
       </c>
       <c r="F178" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G178" t="n">
         <v>235.0</v>
@@ -8355,7 +8355,7 @@
         <v>10.0</v>
       </c>
       <c r="F179" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G179" t="n">
         <v>65.0</v>
@@ -8396,7 +8396,7 @@
         <v>20.0</v>
       </c>
       <c r="F180" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G180" t="n">
         <v>1820.0</v>
@@ -8437,7 +8437,7 @@
         <v>25.0</v>
       </c>
       <c r="F181" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G181" t="n">
         <v>3870.0</v>
@@ -8478,7 +8478,7 @@
         <v>10.0</v>
       </c>
       <c r="F182" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G182" t="n">
         <v>245.0</v>
@@ -8519,7 +8519,7 @@
         <v>5.0</v>
       </c>
       <c r="F183" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G183" t="n">
         <v>85.0</v>
@@ -8560,7 +8560,7 @@
         <v>20.0</v>
       </c>
       <c r="F184" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G184" t="n">
         <v>1110.0</v>
@@ -8601,7 +8601,7 @@
         <v>5.0</v>
       </c>
       <c r="F185" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G185" t="n">
         <v>445.0</v>
@@ -8642,7 +8642,7 @@
         <v>5.0</v>
       </c>
       <c r="F186" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G186" t="n">
         <v>250.0</v>
@@ -8683,7 +8683,7 @@
         <v>10.0</v>
       </c>
       <c r="F187" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G187" t="n">
         <v>210.0</v>
@@ -8847,7 +8847,7 @@
         <v>5.0</v>
       </c>
       <c r="F191" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G191" t="n">
         <v>120.0</v>
@@ -8888,7 +8888,7 @@
         <v>5.0</v>
       </c>
       <c r="F192" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G192" t="n">
         <v>15.0</v>
@@ -8929,7 +8929,7 @@
         <v>10.0</v>
       </c>
       <c r="F193" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G193" t="n">
         <v>405.0</v>
@@ -8970,7 +8970,7 @@
         <v>5.0</v>
       </c>
       <c r="F194" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G194" t="n">
         <v>235.0</v>
@@ -9380,7 +9380,7 @@
         <v>5.0</v>
       </c>
       <c r="F204" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G204" t="n">
         <v>220.0</v>
@@ -9421,7 +9421,7 @@
         <v>5.0</v>
       </c>
       <c r="F205" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G205" t="n">
         <v>130.0</v>
@@ -9462,7 +9462,7 @@
         <v>30.0</v>
       </c>
       <c r="F206" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G206" t="n">
         <v>525.0</v>
@@ -9503,7 +9503,7 @@
         <v>70.0</v>
       </c>
       <c r="F207" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G207" t="n">
         <v>63165.0</v>
@@ -9544,7 +9544,7 @@
         <v>5.0</v>
       </c>
       <c r="F208" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G208" t="n">
         <v>370.0</v>
@@ -9626,7 +9626,7 @@
         <v>15.0</v>
       </c>
       <c r="F210" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G210" t="n">
         <v>130.0</v>
@@ -9667,7 +9667,7 @@
         <v>5.0</v>
       </c>
       <c r="F211" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G211" t="n">
         <v>295.0</v>
@@ -9708,7 +9708,7 @@
         <v>5.0</v>
       </c>
       <c r="F212" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G212" t="n">
         <v>60.0</v>
@@ -9749,7 +9749,7 @@
         <v>40.0</v>
       </c>
       <c r="F213" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G213" t="n">
         <v>770.0</v>
@@ -9790,7 +9790,7 @@
         <v>5.0</v>
       </c>
       <c r="F214" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G214" t="n">
         <v>55.0</v>
@@ -9831,7 +9831,7 @@
         <v>10.0</v>
       </c>
       <c r="F215" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G215" t="n">
         <v>115.0</v>
@@ -9872,7 +9872,7 @@
         <v>30.0</v>
       </c>
       <c r="F216" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G216" t="n">
         <v>1660.0</v>
@@ -9913,7 +9913,7 @@
         <v>5.0</v>
       </c>
       <c r="F217" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G217" t="n">
         <v>615.0</v>
@@ -9954,7 +9954,7 @@
         <v>10.0</v>
       </c>
       <c r="F218" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G218" t="n">
         <v>40.0</v>
@@ -9995,7 +9995,7 @@
         <v>10.0</v>
       </c>
       <c r="F219" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G219" t="n">
         <v>20.0</v>
@@ -10036,7 +10036,7 @@
         <v>10.0</v>
       </c>
       <c r="F220" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G220" t="n">
         <v>20.0</v>
@@ -10118,7 +10118,7 @@
         <v>5.0</v>
       </c>
       <c r="F222" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G222" t="n">
         <v>10.0</v>
@@ -10159,7 +10159,7 @@
         <v>60.0</v>
       </c>
       <c r="F223" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G223" t="n">
         <v>1580.0</v>
@@ -10323,7 +10323,7 @@
         <v>5.0</v>
       </c>
       <c r="F227" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G227" t="n">
         <v>25.0</v>
@@ -10446,7 +10446,7 @@
         <v>25.0</v>
       </c>
       <c r="F230" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G230" t="n">
         <v>320.0</v>
@@ -10487,7 +10487,7 @@
         <v>75.0</v>
       </c>
       <c r="F231" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G231" t="n">
         <v>2400.0</v>
@@ -10610,7 +10610,7 @@
         <v>5.0</v>
       </c>
       <c r="F234" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G234" t="n">
         <v>525.0</v>
@@ -10733,7 +10733,7 @@
         <v>5.0</v>
       </c>
       <c r="F237" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G237" t="n">
         <v>25.0</v>
@@ -10815,7 +10815,7 @@
         <v>15.0</v>
       </c>
       <c r="F239" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G239" t="n">
         <v>105.0</v>
@@ -10856,7 +10856,7 @@
         <v>45.0</v>
       </c>
       <c r="F240" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G240" t="n">
         <v>970.0</v>
@@ -10897,7 +10897,7 @@
         <v>15.0</v>
       </c>
       <c r="F241" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G241" t="n">
         <v>1165.0</v>
@@ -10938,7 +10938,7 @@
         <v>15.0</v>
       </c>
       <c r="F242" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G242" t="n">
         <v>185.0</v>
@@ -11102,7 +11102,7 @@
         <v>10.0</v>
       </c>
       <c r="F246" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G246" t="n">
         <v>830.0</v>
@@ -11143,7 +11143,7 @@
         <v>20.0</v>
       </c>
       <c r="F247" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G247" t="n">
         <v>1205.0</v>
@@ -11184,7 +11184,7 @@
         <v>5.0</v>
       </c>
       <c r="F248" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G248" t="n">
         <v>4330.0</v>
@@ -11225,7 +11225,7 @@
         <v>15.0</v>
       </c>
       <c r="F249" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G249" t="n">
         <v>950.0</v>
@@ -11266,7 +11266,7 @@
         <v>10.0</v>
       </c>
       <c r="F250" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G250" t="n">
         <v>520.0</v>
@@ -11307,7 +11307,7 @@
         <v>10.0</v>
       </c>
       <c r="F251" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G251" t="n">
         <v>500.0</v>
@@ -11348,7 +11348,7 @@
         <v>35.0</v>
       </c>
       <c r="F252" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G252" t="n">
         <v>4465.0</v>
@@ -11389,7 +11389,7 @@
         <v>45.0</v>
       </c>
       <c r="F253" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G253" t="n">
         <v>635.0</v>
@@ -11430,7 +11430,7 @@
         <v>5.0</v>
       </c>
       <c r="F254" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G254" t="n">
         <v>35.0</v>
@@ -11553,7 +11553,7 @@
         <v>10.0</v>
       </c>
       <c r="F257" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G257" t="n">
         <v>110.0</v>
@@ -11594,7 +11594,7 @@
         <v>10.0</v>
       </c>
       <c r="F258" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G258" t="n">
         <v>50.0</v>
@@ -11635,7 +11635,7 @@
         <v>55.0</v>
       </c>
       <c r="F259" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G259" t="n">
         <v>3475.0</v>
@@ -11717,7 +11717,7 @@
         <v>10.0</v>
       </c>
       <c r="F261" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G261" t="n">
         <v>95.0</v>
@@ -11758,7 +11758,7 @@
         <v>5.0</v>
       </c>
       <c r="F262" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G262" t="n">
         <v>135.0</v>
@@ -11840,7 +11840,7 @@
         <v>15.0</v>
       </c>
       <c r="F264" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G264" t="n">
         <v>55.0</v>
@@ -11922,7 +11922,7 @@
         <v>5.0</v>
       </c>
       <c r="F266" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G266" t="n">
         <v>25.0</v>
@@ -12004,7 +12004,7 @@
         <v>5.0</v>
       </c>
       <c r="F268" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G268" t="n">
         <v>20.0</v>
@@ -12086,7 +12086,7 @@
         <v>40.0</v>
       </c>
       <c r="F270" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G270" t="n">
         <v>1505.0</v>
@@ -12127,7 +12127,7 @@
         <v>10.0</v>
       </c>
       <c r="F271" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G271" t="n">
         <v>10.0</v>
@@ -12250,7 +12250,7 @@
         <v>5.0</v>
       </c>
       <c r="F274" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G274" t="n">
         <v>85.0</v>
@@ -12332,7 +12332,7 @@
         <v>5.0</v>
       </c>
       <c r="F276" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G276" t="n">
         <v>45.0</v>
@@ -12373,7 +12373,7 @@
         <v>10.0</v>
       </c>
       <c r="F277" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G277" t="n">
         <v>35.0</v>
@@ -12414,7 +12414,7 @@
         <v>5.0</v>
       </c>
       <c r="F278" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G278" t="n">
         <v>350.0</v>
@@ -12783,7 +12783,7 @@
         <v>5.0</v>
       </c>
       <c r="F287" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G287" t="n">
         <v>100.0</v>
@@ -12865,7 +12865,7 @@
         <v>10.0</v>
       </c>
       <c r="F289" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G289" t="n">
         <v>110.0</v>
@@ -12947,7 +12947,7 @@
         <v>50.0</v>
       </c>
       <c r="F291" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G291" t="n">
         <v>1565.0</v>
@@ -12988,7 +12988,7 @@
         <v>10.0</v>
       </c>
       <c r="F292" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G292" t="n">
         <v>220.0</v>
@@ -13029,7 +13029,7 @@
         <v>25.0</v>
       </c>
       <c r="F293" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G293" t="n">
         <v>320.0</v>
@@ -13070,7 +13070,7 @@
         <v>30.0</v>
       </c>
       <c r="F294" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G294" t="n">
         <v>645.0</v>
@@ -13111,7 +13111,7 @@
         <v>20.0</v>
       </c>
       <c r="F295" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G295" t="n">
         <v>805.0</v>
@@ -13193,7 +13193,7 @@
         <v>10.0</v>
       </c>
       <c r="F297" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G297" t="n">
         <v>90.0</v>
@@ -13234,7 +13234,7 @@
         <v>5.0</v>
       </c>
       <c r="F298" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G298" t="n">
         <v>20.0</v>
@@ -13275,7 +13275,7 @@
         <v>5.0</v>
       </c>
       <c r="F299" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G299" t="n">
         <v>810.0</v>
@@ -13316,7 +13316,7 @@
         <v>10.0</v>
       </c>
       <c r="F300" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G300" t="n">
         <v>655.0</v>
@@ -13357,7 +13357,7 @@
         <v>5.0</v>
       </c>
       <c r="F301" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G301" t="n">
         <v>540.0</v>
@@ -13398,7 +13398,7 @@
         <v>10.0</v>
       </c>
       <c r="F302" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G302" t="n">
         <v>1770.0</v>
@@ -13562,7 +13562,7 @@
         <v>10.0</v>
       </c>
       <c r="F306" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G306" t="n">
         <v>1560.0</v>
@@ -13603,7 +13603,7 @@
         <v>5.0</v>
       </c>
       <c r="F307" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G307" t="n">
         <v>385.0</v>
@@ -13767,7 +13767,7 @@
         <v>5.0</v>
       </c>
       <c r="F311" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G311" t="n">
         <v>190.0</v>
